--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\student-info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C359C3A-243B-46BE-BF96-805607BE298C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E15A986-1661-4561-8477-E5DAE379D0BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8632D367-27B2-4D70-B6AF-31A7EA684B97}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>stt</t>
   </si>
@@ -171,6 +172,9 @@
   </si>
   <si>
     <t>DI15V7A2</t>
+  </si>
+  <si>
+    <t>sdt</t>
   </si>
 </sst>
 </file>
@@ -524,19 +528,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B42A32B-9768-4CE7-A3CD-44A75A356C1C}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,16 +555,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -572,17 +580,20 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
+        <v>799680906</v>
+      </c>
+      <c r="F2" s="1">
         <v>35728</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -595,17 +606,20 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
+        <v>799680907</v>
+      </c>
+      <c r="F3" s="1">
         <v>35464</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -618,17 +632,20 @@
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
+        <v>799680908</v>
+      </c>
+      <c r="F4" s="1">
         <v>35550</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -641,17 +658,20 @@
       <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
+        <v>799680909</v>
+      </c>
+      <c r="F5" s="1">
         <v>35827</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -664,17 +684,20 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
+        <v>799680910</v>
+      </c>
+      <c r="F6" s="1">
         <v>35828</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -687,17 +710,20 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
+        <v>799680911</v>
+      </c>
+      <c r="F7" s="1">
         <v>35829</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -710,17 +736,20 @@
       <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
+        <v>799680912</v>
+      </c>
+      <c r="F8" s="1">
         <v>35830</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -733,17 +762,20 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
+        <v>799680913</v>
+      </c>
+      <c r="F9" s="1">
         <v>35831</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -756,17 +788,20 @@
       <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
+        <v>799680914</v>
+      </c>
+      <c r="F10" s="1">
         <v>35832</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -779,17 +814,20 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
+        <v>799680915</v>
+      </c>
+      <c r="F11" s="1">
         <v>35833</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -802,17 +840,20 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
+        <v>799680916</v>
+      </c>
+      <c r="F12" s="1">
         <v>35834</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -825,17 +866,20 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
+        <v>799680917</v>
+      </c>
+      <c r="F13" s="1">
         <v>35835</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -848,17 +892,20 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
+        <v>799680918</v>
+      </c>
+      <c r="F14" s="1">
         <v>35836</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -871,17 +918,20 @@
       <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
+        <v>799680919</v>
+      </c>
+      <c r="F15" s="1">
         <v>35837</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -894,14 +944,17 @@
       <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
+        <v>799680920</v>
+      </c>
+      <c r="F16" s="1">
         <v>35838</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
